--- a/Suvella/bin/Debug/net8.0-windows/customers.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/customers.xlsx
@@ -11,25 +11,31 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Quach Gia Hung</t>
   </si>
   <si>
+    <t>09899999</t>
+  </si>
+  <si>
     <t>Quoc Tu Giam, Hoan Kiem, Ha Noi</t>
   </si>
   <si>
+    <t>09899997</t>
+  </si>
+  <si>
+    <t>09899995</t>
+  </si>
+  <si>
     <t>Dinh Thi Thu Tra</t>
   </si>
   <si>
-    <t>09899999</t>
-  </si>
-  <si>
     <t>97666666</t>
   </si>
   <si>
@@ -45,17 +51,21 @@
     <t>Vinhomes Gardenia</t>
   </si>
   <si>
-    <t>09899995</t>
-  </si>
-  <si>
-    <t>09899997</t>
+    <t>Thu Tra</t>
+  </si>
+  <si>
+    <t>4131231</t>
+  </si>
+  <si>
+    <t>sdadasdas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,100 +398,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="28.83984375" customWidth="1"/>
-    <col min="2" max="2" width="20.05078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.05078125" customWidth="1" style="1"/>
     <col min="3" max="3" width="29.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Suvella/bin/Debug/net8.0-windows/customers.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/customers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Quach Gia Hung</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>sdadasdas</t>
+  </si>
+  <si>
+    <t>Tra</t>
+  </si>
+  <si>
+    <t>423232</t>
+  </si>
+  <si>
+    <t>adadad</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -477,6 +486,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
